--- a/student_sample.xlsx
+++ b/student_sample.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t xml:space="preserve">محمد</t>
   </si>
@@ -28,13 +28,28 @@
     <t xml:space="preserve">اکبری</t>
   </si>
   <si>
-    <t xml:space="preserve">یازدهم – ریاضی و فیزیک</t>
-  </si>
-  <si>
-    <t xml:space="preserve">سید سبحان</t>
-  </si>
-  <si>
-    <t xml:space="preserve">واقعه دشتی</t>
+    <t xml:space="preserve">هزارم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">هنر</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پسر</t>
+  </si>
+  <si>
+    <t xml:space="preserve">آرمان</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جعفری</t>
+  </si>
+  <si>
+    <t xml:space="preserve">یازدهم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ریاضی و فیزیک</t>
+  </si>
+  <si>
+    <t xml:space="preserve">دختر</t>
   </si>
 </sst>
 </file>
@@ -44,7 +59,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -71,6 +86,11 @@
       <name val="Lohit Devanagari"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Lohit Devanagari"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -115,12 +135,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -141,17 +165,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.6020408163265"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.5357142857143"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.7551020408163"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.5051020408163"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.8877551020408"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -167,6 +192,12 @@
       <c r="D1" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="E1" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1" s="0" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
@@ -181,19 +212,31 @@
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>2589947558</v>
+        <v>2589947559</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
